--- a/Monograph/結果集計.xlsx
+++ b/Monograph/結果集計.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inokoryou/Desktop/Network_Tomography/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inokoryou/Desktop/Monograph/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>k = 1</t>
   </si>
@@ -115,6 +115,41 @@
   </si>
   <si>
     <t>ネットワーク3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>故障リンク数</t>
+    <rPh sb="0" eb="2">
+      <t>コショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -191,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -288,13 +323,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +403,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -624,20 +701,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="14" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
@@ -646,8 +745,30 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,8 +779,30 @@
       <c r="E4" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2">
+        <v>22</v>
+      </c>
+      <c r="K4" s="10">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>22</v>
+      </c>
+      <c r="N4" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
@@ -672,8 +815,32 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2">
+        <v>16</v>
+      </c>
+      <c r="K5" s="10">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20</v>
+      </c>
+      <c r="N5" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -684,8 +851,30 @@
       <c r="E6" s="3">
         <v>11.07792208</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="13"/>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>11.86956522</v>
+      </c>
+      <c r="K6" s="11">
+        <v>9.7142857140000007</v>
+      </c>
+      <c r="L6" s="3">
+        <v>11.07792208</v>
+      </c>
+      <c r="M6" s="3">
+        <v>12.841897230000001</v>
+      </c>
+      <c r="N6" s="11">
+        <v>11.12380952</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -696,8 +885,30 @@
       <c r="E7" s="3">
         <v>4.2623264179999998</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="14"/>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.1590909090000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.2003780719999999</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3.346938776</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4.2623264179999998</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4.1963473889999996</v>
+      </c>
+      <c r="N7" s="11">
+        <v>8.9430671920000009</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -708,13 +919,35 @@
       <c r="E8" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>16</v>
+      </c>
+      <c r="K8" s="10">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2">
+        <v>22</v>
+      </c>
+      <c r="N8" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
@@ -724,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -736,7 +969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
@@ -750,7 +983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -762,7 +995,7 @@
         <v>12.841897230000001</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -867,12 +1100,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B23:B25"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Monograph/結果集計.xlsx
+++ b/Monograph/結果集計.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>k = 1</t>
   </si>
@@ -150,6 +150,18 @@
     <rPh sb="0" eb="2">
       <t>コショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トポロジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノード数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -226,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -347,13 +359,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +407,24 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,22 +443,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +731,7 @@
   <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G3" sqref="G3:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -721,20 +748,14 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -745,26 +766,28 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -779,31 +802,31 @@
       <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2">
-        <v>22</v>
-      </c>
-      <c r="K4" s="10">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2">
-        <v>22</v>
-      </c>
-      <c r="N4" s="10">
-        <v>22</v>
+      <c r="G4" s="19"/>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="12">
+        <v>14</v>
+      </c>
+      <c r="J4" s="13">
+        <v>13</v>
+      </c>
+      <c r="K4" s="14">
+        <v>13</v>
+      </c>
+      <c r="L4" s="12">
+        <v>14</v>
+      </c>
+      <c r="M4" s="13">
+        <v>13</v>
+      </c>
+      <c r="N4" s="14">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -815,33 +838,31 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2">
-        <v>16</v>
-      </c>
-      <c r="K5" s="10">
-        <v>14</v>
-      </c>
-      <c r="L5" s="2">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2">
-        <v>20</v>
-      </c>
-      <c r="N5" s="10">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="12">
+        <v>22</v>
+      </c>
+      <c r="J5" s="13">
+        <v>23</v>
+      </c>
+      <c r="K5" s="14">
+        <v>21</v>
+      </c>
+      <c r="L5" s="12">
+        <v>22</v>
+      </c>
+      <c r="M5" s="13">
+        <v>23</v>
+      </c>
+      <c r="N5" s="14">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -851,31 +872,23 @@
       <c r="E6" s="3">
         <v>11.07792208</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>11.86956522</v>
-      </c>
-      <c r="K6" s="11">
-        <v>9.7142857140000007</v>
-      </c>
-      <c r="L6" s="3">
-        <v>11.07792208</v>
-      </c>
-      <c r="M6" s="3">
-        <v>12.841897230000001</v>
-      </c>
-      <c r="N6" s="11">
-        <v>11.12380952</v>
-      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -885,27 +898,27 @@
       <c r="E7" s="3">
         <v>4.2623264179999998</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.1590909090000001</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2.2003780719999999</v>
-      </c>
-      <c r="K7" s="11">
-        <v>3.346938776</v>
-      </c>
-      <c r="L7" s="3">
-        <v>4.2623264179999998</v>
-      </c>
-      <c r="M7" s="3">
-        <v>4.1963473889999996</v>
-      </c>
-      <c r="N7" s="11">
-        <v>8.9430671920000009</v>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>22</v>
+      </c>
+      <c r="K7" s="10">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>22</v>
+      </c>
+      <c r="N7" s="10">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -919,12 +932,14 @@
       <c r="E8" s="2">
         <v>18</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2">
         <v>13</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2">
-        <v>12</v>
       </c>
       <c r="J8" s="2">
         <v>16</v>
@@ -933,18 +948,88 @@
         <v>14</v>
       </c>
       <c r="L8" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M8" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N8" s="10">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G9" s="19"/>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11.86956522</v>
+      </c>
+      <c r="K9" s="11">
+        <v>9.7142857140000007</v>
+      </c>
+      <c r="L9" s="3">
+        <v>11.07792208</v>
+      </c>
+      <c r="M9" s="3">
+        <v>12.841897230000001</v>
+      </c>
+      <c r="N9" s="11">
+        <v>11.12380952</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G10" s="20"/>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.1590909090000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.2003780719999999</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3.346938776</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.2623264179999998</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4.1963473889999996</v>
+      </c>
+      <c r="N10" s="11">
+        <v>8.9430671920000009</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2">
+        <v>16</v>
+      </c>
+      <c r="K11" s="10">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2">
+        <v>22</v>
+      </c>
+      <c r="N11" s="10">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -970,7 +1055,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -984,7 +1069,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -996,7 +1081,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1135,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1064,7 +1149,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1161,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
@@ -1100,13 +1185,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monograph/結果集計.xlsx
+++ b/Monograph/結果集計.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>k = 1</t>
   </si>
@@ -118,50 +118,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ネットワーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>故障リンク数</t>
     <rPh sb="0" eb="2">
       <t>コショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トポロジー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ノード数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンク数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -172,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +189,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -349,11 +333,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -361,11 +345,24 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -374,7 +371,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,24 +404,6 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,10 +422,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,31 +758,23 @@
   <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:N11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="14" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="14" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -766,30 +785,6 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -802,31 +797,9 @@
       <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="12">
-        <v>14</v>
-      </c>
-      <c r="J4" s="13">
-        <v>13</v>
-      </c>
-      <c r="K4" s="14">
-        <v>13</v>
-      </c>
-      <c r="L4" s="12">
-        <v>14</v>
-      </c>
-      <c r="M4" s="13">
-        <v>13</v>
-      </c>
-      <c r="N4" s="14">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -838,31 +811,9 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="12">
-        <v>22</v>
-      </c>
-      <c r="J5" s="13">
-        <v>23</v>
-      </c>
-      <c r="K5" s="14">
-        <v>21</v>
-      </c>
-      <c r="L5" s="12">
-        <v>22</v>
-      </c>
-      <c r="M5" s="13">
-        <v>23</v>
-      </c>
-      <c r="N5" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
+    </row>
+    <row r="6" spans="2:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,23 +823,23 @@
       <c r="E6" s="3">
         <v>11.07792208</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="15" t="s">
+      <c r="G6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="15" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="2:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -898,30 +849,30 @@
       <c r="E7" s="3">
         <v>4.2623264179999998</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2">
+      <c r="H7" s="23"/>
+      <c r="I7" s="24">
         <v>20</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="24">
         <v>22</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="25">
         <v>22</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="24">
         <v>20</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="24">
         <v>22</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="26">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="24" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -932,103 +883,103 @@
       <c r="E8" s="2">
         <v>18</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="24">
         <v>13</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="24">
         <v>16</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="25">
         <v>14</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="24">
         <v>20</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="24">
         <v>20</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="26">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G9" s="19"/>
-      <c r="H9" s="1" t="s">
+    <row r="9" spans="2:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="G9" s="27"/>
+      <c r="H9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="24">
         <v>9.5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="28">
         <v>11.86956522</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="29">
         <v>9.7142857140000007</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="28">
         <v>11.07792208</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="28">
         <v>12.841897230000001</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="30">
         <v>11.12380952</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G10" s="20"/>
-      <c r="H10" s="1" t="s">
+    <row r="10" spans="2:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="G10" s="27"/>
+      <c r="H10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="28">
         <v>2.1590909090000001</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="28">
         <v>2.2003780719999999</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="29">
         <v>3.346938776</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="28">
         <v>4.2623264179999998</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="28">
         <v>4.1963473889999996</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="30">
         <v>8.9430671920000009</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="24" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2">
+      <c r="H11" s="32"/>
+      <c r="I11" s="33">
         <v>12</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="33">
         <v>16</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="34">
         <v>14</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="33">
         <v>18</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="33">
         <v>22</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="35">
         <v>21</v>
       </c>
     </row>
@@ -1055,7 +1006,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1069,7 +1020,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1032,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1086,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1149,7 +1100,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1112,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
@@ -1185,16 +1136,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
+  <mergeCells count="6">
+    <mergeCell ref="L6:N6"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="G3:G5"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monograph/結果集計.xlsx
+++ b/Monograph/結果集計.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>k = 1</t>
   </si>
@@ -122,6 +122,30 @@
     <rPh sb="0" eb="2">
       <t>コショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(b)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(a)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(b)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(c)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(c)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -371,7 +395,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +428,48 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,59 +488,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -758,7 +791,7 @@
   <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F4" sqref="F4:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -798,8 +831,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="B5" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -811,9 +844,23 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
+      <c r="G5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -823,23 +870,31 @@
       <c r="E6" s="3">
         <v>11.07792208</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="G6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -849,26 +904,26 @@
       <c r="E7" s="3">
         <v>4.2623264179999998</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14">
         <v>20</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="14">
         <v>22</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="15">
         <v>22</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="14">
         <v>20</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="14">
         <v>22</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="16">
         <v>22</v>
       </c>
     </row>
@@ -883,76 +938,76 @@
       <c r="E8" s="2">
         <v>18</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="14">
         <v>13</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="14">
         <v>16</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="15">
         <v>14</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="14">
         <v>20</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="14">
         <v>20</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="16">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="G9" s="27"/>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="14">
         <v>9.5</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="17">
         <v>11.86956522</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="18">
         <v>9.7142857140000007</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="17">
         <v>11.07792208</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="17">
         <v>12.841897230000001</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="19">
         <v>11.12380952</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="G10" s="27"/>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="17">
         <v>2.1590909090000001</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="17">
         <v>2.2003780719999999</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="18">
         <v>3.346938776</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="17">
         <v>4.2623264179999998</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="17">
         <v>4.1963473889999996</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="19">
         <v>8.9430671920000009</v>
       </c>
     </row>
@@ -960,26 +1015,26 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33">
+      <c r="H11" s="20"/>
+      <c r="I11" s="21">
         <v>12</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="21">
         <v>16</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="22">
         <v>14</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="21">
         <v>18</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="21">
         <v>22</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="23">
         <v>21</v>
       </c>
     </row>
@@ -1006,7 +1061,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1020,7 +1075,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,7 +1087,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1141,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1100,7 +1155,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1167,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
@@ -1137,12 +1192,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monograph/結果集計.xlsx
+++ b/Monograph/結果集計.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>k = 1</t>
   </si>
@@ -103,18 +103,6 @@
     <rPh sb="0" eb="6">
       <t>ホンシュホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネットワーク1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネットワーク2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネットワーク3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -156,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,14 +217,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -290,17 +270,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -334,19 +303,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -386,6 +342,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -395,7 +360,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,104 +375,134 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -788,14 +783,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N26"/>
+  <dimension ref="B3:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:O12"/>
+      <selection activeCell="B3" sqref="B3:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
@@ -804,35 +802,30 @@
     <col min="12" max="14" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -841,227 +834,224 @@
       <c r="D5" s="2">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="26">
         <v>20</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="24" t="s">
+      <c r="G5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>9.5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="27">
         <v>11.07792208</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>20</v>
+      <c r="G6" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>25</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="33" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="B7" s="28"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>2.1590909090000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="27">
         <v>4.2623264179999998</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14">
+      <c r="H7" s="10"/>
+      <c r="I7" s="11">
         <v>20</v>
       </c>
-      <c r="J7" s="14">
-        <v>22</v>
-      </c>
-      <c r="K7" s="15">
-        <v>22</v>
-      </c>
-      <c r="L7" s="14">
+      <c r="J7" s="11">
         <v>20</v>
       </c>
-      <c r="M7" s="14">
-        <v>22</v>
-      </c>
-      <c r="N7" s="16">
-        <v>22</v>
+      <c r="K7" s="11">
+        <v>20</v>
+      </c>
+      <c r="L7" s="11">
+        <v>20</v>
+      </c>
+      <c r="M7" s="11">
+        <v>20</v>
+      </c>
+      <c r="N7" s="11">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="31">
         <v>18</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>13</v>
       </c>
-      <c r="J8" s="14">
-        <v>16</v>
-      </c>
-      <c r="K8" s="15">
-        <v>14</v>
-      </c>
-      <c r="L8" s="14">
-        <v>20</v>
-      </c>
-      <c r="M8" s="14">
-        <v>20</v>
-      </c>
-      <c r="N8" s="16">
-        <v>19</v>
+      <c r="J8" s="11">
+        <v>13</v>
+      </c>
+      <c r="K8" s="11">
+        <v>13</v>
+      </c>
+      <c r="L8" s="11">
+        <v>13</v>
+      </c>
+      <c r="M8" s="11">
+        <v>13</v>
+      </c>
+      <c r="N8" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="G9" s="37"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="48"/>
+      <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <v>9.5</v>
       </c>
-      <c r="J9" s="17">
-        <v>11.86956522</v>
-      </c>
-      <c r="K9" s="18">
-        <v>9.7142857140000007</v>
-      </c>
-      <c r="L9" s="17">
-        <v>11.07792208</v>
-      </c>
-      <c r="M9" s="17">
-        <v>12.841897230000001</v>
-      </c>
-      <c r="N9" s="19">
-        <v>11.12380952</v>
+      <c r="J9" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K9" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="L9" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="M9" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="N9" s="11">
+        <v>9.5</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="G10" s="37"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="48"/>
+      <c r="H10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="12">
         <v>2.1590909090000001</v>
       </c>
-      <c r="J10" s="17">
-        <v>2.2003780719999999</v>
-      </c>
-      <c r="K10" s="18">
-        <v>3.346938776</v>
-      </c>
-      <c r="L10" s="17">
-        <v>4.2623264179999998</v>
-      </c>
-      <c r="M10" s="17">
-        <v>4.1963473889999996</v>
-      </c>
-      <c r="N10" s="19">
-        <v>8.9430671920000009</v>
+      <c r="J10" s="12">
+        <v>2.1590909090000001</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2.1590909090000001</v>
+      </c>
+      <c r="L10" s="12">
+        <v>2.1590909090000001</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2.1590909090000001</v>
+      </c>
+      <c r="N10" s="12">
+        <v>2.1590909090000001</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21">
+      <c r="H11" s="13"/>
+      <c r="I11" s="14">
         <v>12</v>
       </c>
-      <c r="J11" s="21">
-        <v>16</v>
-      </c>
-      <c r="K11" s="22">
-        <v>14</v>
-      </c>
-      <c r="L11" s="21">
-        <v>18</v>
-      </c>
-      <c r="M11" s="21">
-        <v>22</v>
-      </c>
-      <c r="N11" s="23">
-        <v>21</v>
+      <c r="J11" s="14">
+        <v>12</v>
+      </c>
+      <c r="K11" s="14">
+        <v>12</v>
+      </c>
+      <c r="L11" s="14">
+        <v>12</v>
+      </c>
+      <c r="M11" s="14">
+        <v>12</v>
+      </c>
+      <c r="N11" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2">
         <v>22</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="26">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1070,123 +1060,121 @@
       <c r="D14" s="2">
         <v>16</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3">
         <v>11.86956522</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="27">
         <v>12.841897230000001</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3">
         <v>2.2003780719999999</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="27">
         <v>4.1963473889999996</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30">
         <v>16</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="31">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10">
+      <c r="C22" s="5"/>
+      <c r="D22" s="34">
         <v>22</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="35">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="34">
         <v>14</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="35">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="36">
         <v>9.7142857140000007</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="37">
         <v>11.12380952</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="31"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="36">
         <v>3.346938776</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="37">
         <v>8.9430671920000009</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10">
+      <c r="C26" s="39"/>
+      <c r="D26" s="40">
         <v>14</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="41">
         <v>21</v>
       </c>
     </row>

--- a/Monograph/結果集計.xlsx
+++ b/Monograph/結果集計.xlsx
@@ -355,8 +355,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -505,10 +507,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -785,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E26"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -905,19 +909,19 @@
         <v>20</v>
       </c>
       <c r="J7" s="11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" s="11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" s="11">
         <v>20</v>
       </c>
       <c r="M7" s="11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7" s="11">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" x14ac:dyDescent="0.35">
@@ -941,19 +945,19 @@
         <v>13</v>
       </c>
       <c r="J8" s="11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K8" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M8" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N8" s="11">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" x14ac:dyDescent="0.35">
@@ -965,19 +969,19 @@
         <v>9.5</v>
       </c>
       <c r="J9" s="11">
-        <v>9.5</v>
+        <v>11.87</v>
       </c>
       <c r="K9" s="11">
-        <v>9.5</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="L9" s="11">
-        <v>9.5</v>
+        <v>11.07</v>
       </c>
       <c r="M9" s="11">
-        <v>9.5</v>
+        <v>12.84</v>
       </c>
       <c r="N9" s="11">
-        <v>9.5</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" x14ac:dyDescent="0.35">
@@ -986,22 +990,22 @@
         <v>11</v>
       </c>
       <c r="I10" s="12">
-        <v>2.1590909090000001</v>
+        <v>2.16</v>
       </c>
       <c r="J10" s="12">
-        <v>2.1590909090000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K10" s="12">
-        <v>2.1590909090000001</v>
+        <v>3.35</v>
       </c>
       <c r="L10" s="12">
-        <v>2.1590909090000001</v>
+        <v>4.26</v>
       </c>
       <c r="M10" s="12">
-        <v>2.1590909090000001</v>
+        <v>4.2</v>
       </c>
       <c r="N10" s="12">
-        <v>2.1590909090000001</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="24" x14ac:dyDescent="0.35">
@@ -1013,19 +1017,19 @@
         <v>12</v>
       </c>
       <c r="J11" s="14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K11" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" s="14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M11" s="14">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N11" s="14">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
